--- a/Excel Data/Cleaned Games Sales.xlsx
+++ b/Excel Data/Cleaned Games Sales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Documents\PyCharmProjects\Games Sales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Documents\PyCharmProjects\Games Sales Analysis\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48D2AB1-7475-4D29-8653-B424226A88E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBADF835-AF83-45E4-A792-06E85031B5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="869" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="869" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="NativeTimeline_Release_Date">#N/A</definedName>
     <definedName name="Slicer_Genre">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId8"/>
     <pivotCache cacheId="1" r:id="rId9"/>
@@ -44,6 +44,17 @@
         <x15:timelineCacheRef r:id="rId11"/>
       </x15:timelineCacheRefs>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -1165,14 +1176,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="167" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1241,14 +1253,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="24"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="Franklin Gothic Heavy"/>
@@ -1270,6 +1274,25 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="Franklin Gothic Demi Cond"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Bahnschrift SemiBold SemiConden"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Bahnschrift SemiBold SemiConden"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Bahnschrift SemiBold SemiConden"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1302,12 +1325,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1318,8 +1335,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1340,15 +1363,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1365,18 +1396,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1385,62 +1409,2223 @@
     <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="37" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
-    <cellStyle name="40% - Accent4" xfId="4" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="3" builtinId="41"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+  <cellStyles count="4">
+    <cellStyle name="40% - Accent4" xfId="3" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="2" builtinId="41"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="105">
+  <dxfs count="432">
+    <dxf>
+      <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0_);\(#,##0\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0_);\(#,##0\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0_);\(#,##0\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0_);\(#,##0\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0_);\(#,##0\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0_);\(#,##0\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0_);\(#,##0\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0_);\(#,##0\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0_);\(#,##0\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Bahnschrift SemiBold SemiConden"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -1938,6 +4123,9 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
@@ -1953,12 +4141,12 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
@@ -1972,9 +4160,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
@@ -3731,7 +5916,7 @@
             <c:numRef>
               <c:f>'Sales Per Genre'!$B$4:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>148730000</c:v>
@@ -3892,7 +6077,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="#,##0_);\(#,##0\)" sourceLinked="1"/>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5951,7 +8136,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6010,7 +8195,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6608,7 +8793,7 @@
             <c:numRef>
               <c:f>'Sales Per Developer'!$C$4:$C$25</c:f>
               <c:numCache>
-                <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>48430000</c:v>
@@ -10831,7 +13016,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="3142422" y="1413013"/>
-            <a:ext cx="1653540" cy="371061"/>
+            <a:ext cx="1727752" cy="371061"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -10869,7 +13054,7 @@
                 <a:cs typeface="Calibri"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>71,163,333</a:t>
+              <a:t> $71,163,333.33 </a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="1600" b="0">
               <a:solidFill>
@@ -18957,6 +21142,498 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{35A3A763-1ACB-48FD-A513-CC63464532F7}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Year">
+  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="166" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="6">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="8">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="13"/>
+    <field x="12"/>
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Sales" fld="6" baseField="0" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <formats count="23">
+    <format dxfId="400">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="399">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="398">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="397">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="6">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="396">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="395">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="326">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="325">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="324">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="323">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="322">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="321">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="313">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="312">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="289">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="273">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="272">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="271">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="270">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="269">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="268">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="267">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="6">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="219">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2C4F9CE6-979F-4E66-92C8-198D01FFD59E}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Console">
+  <location ref="A13:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="9">
+        <item x="6"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="12"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="5"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="8"/>
+        <item h="1" x="11"/>
+        <item h="1" x="6"/>
+        <item h="1" x="4"/>
+        <item h="1" x="7"/>
+        <item h="1" x="1"/>
+        <item h="1" x="14"/>
+        <item h="1" x="3"/>
+        <item h="1" x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="166" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="6">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="8">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sales" fld="6" baseField="0" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <formats count="22">
+    <format dxfId="409">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="408">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="407">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="406">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="405">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="404">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="403">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="402">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="401">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="319">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="318">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="293">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="292">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="285">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="284">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="283">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="282">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="281">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="279">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="276">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="275">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="174">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="11" type="dateBetween" evalOrder="-1" id="66" name="Release Date">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="41275"/>
+            <customFilter operator="lessThanOrEqual" val="43465"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{685C34F0-5730-4D15-B721-C54333F2D298}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Year">
   <location ref="A25:B32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
@@ -19229,17 +21906,17 @@
   <dataFields count="1">
     <dataField name="Number of Games" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="6">
-    <format dxfId="73">
+  <formats count="17">
+    <format dxfId="415">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="414">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="71">
+    <format dxfId="413">
       <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="70">
+    <format dxfId="412">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="13" count="6">
@@ -19253,127 +21930,79 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="411">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="68">
+    <format dxfId="410">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{35A3A763-1ACB-48FD-A513-CC63464532F7}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Year">
-  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" numFmtId="166" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="6">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="8">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="3">
-    <field x="13"/>
-    <field x="12"/>
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Total Sales" fld="6" baseField="0" baseItem="0" numFmtId="3"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="79">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="78">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="77">
+    <format dxfId="316">
       <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="76">
+    <format dxfId="315">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="287">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="286">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="172">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="171">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="170">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="169">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="168">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="167">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="166">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="13" count="6">
@@ -19387,223 +22016,8 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="75">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="74">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2C4F9CE6-979F-4E66-92C8-198D01FFD59E}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Console">
-  <location ref="A13:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="9">
-        <item x="6"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="12"/>
-        <item x="15"/>
-        <item x="13"/>
-        <item x="5"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="8"/>
-        <item h="1" x="11"/>
-        <item h="1" x="6"/>
-        <item h="1" x="4"/>
-        <item h="1" x="7"/>
-        <item h="1" x="1"/>
-        <item h="1" x="14"/>
-        <item h="1" x="3"/>
-        <item h="1" x="16"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="166" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="6">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="8">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sales" fld="6" baseField="0" baseItem="0" numFmtId="3"/>
-  </dataFields>
-  <formats count="9">
-    <format dxfId="88">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="87">
-      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="86">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="85">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="84">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="83">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="82">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="81">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="80">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="11" type="dateBetween" evalOrder="-1" id="66" name="Release Date">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="41275"/>
-            <customFilter operator="lessThanOrEqual" val="43465"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
-          <x15:pivotFilter useWholeDay="1"/>
-        </ext>
-      </extLst>
-    </filter>
-  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -19907,41 +22321,41 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sales" fld="6" baseField="0" baseItem="0" numFmtId="37"/>
+    <dataField name="Sales" fld="6" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
-  <formats count="10">
-    <format dxfId="67">
+  <formats count="15">
+    <format dxfId="394">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="393">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="65">
+    <format dxfId="392">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="391">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="390">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="389">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="388">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="387">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="386">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="385">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -19949,6 +22363,21 @@
           </reference>
         </references>
       </pivotArea>
+    </format>
+    <format dxfId="165">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="164">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="162">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="118">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="116">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
   <conditionalFormats count="1">
@@ -20152,29 +22581,29 @@
   <dataFields count="1">
     <dataField name="Sum of Total Sales" fld="6" baseField="0" baseItem="0" numFmtId="3"/>
   </dataFields>
-  <formats count="10">
-    <format dxfId="57">
+  <formats count="21">
+    <format dxfId="384">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="383">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="382">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="381">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="380">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="379">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="378">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="377">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="10">
@@ -20192,7 +22621,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="376">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="10">
@@ -20210,7 +22639,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="375">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -20218,6 +22647,86 @@
           </reference>
         </references>
       </pivotArea>
+    </format>
+    <format dxfId="115">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="114">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="113">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="112">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="111">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="110">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="109">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="108">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="107">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="106">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="6">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="104">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
   <chartFormats count="17">
@@ -20743,28 +23252,28 @@
   </colItems>
   <dataFields count="2">
     <dataField name="Average of Critic Score" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
-    <dataField name="Sales" fld="6" baseField="0" baseItem="0" numFmtId="37"/>
+    <dataField name="Sales" fld="6" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
-  <formats count="13">
-    <format dxfId="29">
+  <formats count="16">
+    <format dxfId="356">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="355">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="354">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="353">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="352">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="351">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="350">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="50">
@@ -20822,7 +23331,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="349">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="50">
@@ -20880,7 +23389,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="348">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="11">
@@ -20899,10 +23408,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="347">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="346">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -20911,7 +23420,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="345">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -20920,10 +23429,25 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="344">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="102">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="101">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
@@ -21378,13 +23902,13 @@
     <dataField name="Sum of Total Sales" fld="6" baseField="0" baseItem="0" numFmtId="37"/>
   </dataFields>
   <formats count="18">
-    <format dxfId="47">
+    <format dxfId="374">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="373">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="372">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="50">
@@ -21442,7 +23966,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="371">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="50">
@@ -21500,7 +24024,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="370">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="11">
@@ -21519,10 +24043,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="369">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="368">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -21532,7 +24056,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="367">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -21541,13 +24065,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="366">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="365">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="364">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -21559,7 +24083,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="363">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -21568,7 +24092,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="362">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -21577,10 +24101,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="361">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="360">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="20">
@@ -21608,10 +24132,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="359">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="358">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -21623,7 +24147,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="357">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -21789,7 +24313,7 @@
     <dataField name="Sum of Japan Sales" fld="8" baseField="0" baseItem="0" numFmtId="3"/>
   </dataFields>
   <formats count="17">
-    <format dxfId="16">
+    <format dxfId="343">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -21798,7 +24322,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="342">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -21807,7 +24331,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="341">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -21816,7 +24340,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="340">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -21825,7 +24349,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="339">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -21834,7 +24358,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="338">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -21843,7 +24367,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="337">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -21852,7 +24376,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="336">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -21861,7 +24385,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="335">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -21870,7 +24394,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="334">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -21879,7 +24403,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="333">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -21888,7 +24412,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="332">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -21897,10 +24421,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="331">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="330">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -21909,7 +24433,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="329">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -21918,7 +24442,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="328">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -21927,7 +24451,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="327">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -22190,21 +24714,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4BA25912-3DFC-4C2E-AF21-3538A6DBD69D}" name="Table2" displayName="Table2" ref="A1:L221" totalsRowShown="0" headerRowDxfId="104" dataDxfId="102" headerRowBorderDxfId="103" tableBorderDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4BA25912-3DFC-4C2E-AF21-3538A6DBD69D}" name="Table2" displayName="Table2" ref="A1:L221" totalsRowShown="0" headerRowDxfId="431" dataDxfId="429" headerRowBorderDxfId="430" tableBorderDxfId="428">
   <autoFilter ref="A1:L221" xr:uid="{4BA25912-3DFC-4C2E-AF21-3538A6DBD69D}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{B23786EC-0E11-4ABC-997C-86DADD823480}" name="Title" dataDxfId="100"/>
-    <tableColumn id="2" xr3:uid="{E141FC1E-E5DB-46DB-8E96-9C54D216ADC6}" name="Console" dataDxfId="99"/>
-    <tableColumn id="3" xr3:uid="{0E3FF128-F7CD-462B-A57E-B9D81DB3F4BF}" name="Genre" dataDxfId="98"/>
-    <tableColumn id="4" xr3:uid="{F83795A8-64EC-409C-966C-415888DD7EF7}" name="Publisher" dataDxfId="97"/>
-    <tableColumn id="5" xr3:uid="{0BBF2B42-A03D-4A01-A20C-0DE8C11D5AFD}" name="Developer" dataDxfId="96"/>
-    <tableColumn id="6" xr3:uid="{400766E2-71E0-4C1F-BCB6-A1EFE42104D5}" name="Critic Score" dataDxfId="95"/>
-    <tableColumn id="7" xr3:uid="{053C481B-6585-41AD-901C-D025503B0B85}" name="Total Sales" dataDxfId="94"/>
-    <tableColumn id="8" xr3:uid="{6EA3CCC3-0146-4216-81BA-5490D0891AC5}" name="North America Sales" dataDxfId="93"/>
-    <tableColumn id="9" xr3:uid="{04E99B44-1DE6-48EA-9A10-4C6943ABBE0B}" name="Japan Sales" dataDxfId="92"/>
-    <tableColumn id="10" xr3:uid="{0D42D977-E1CE-493D-89BB-43EAA9D461D4}" name="Europe &amp; Africa Sales" dataDxfId="91"/>
-    <tableColumn id="11" xr3:uid="{A4183C85-52F3-4D32-8523-A662774EBF37}" name="Other Sales" dataDxfId="90"/>
-    <tableColumn id="12" xr3:uid="{56B85B3F-4C2B-4F43-87F5-6D6F835CE5C5}" name="Release Date" dataDxfId="89"/>
+    <tableColumn id="1" xr3:uid="{B23786EC-0E11-4ABC-997C-86DADD823480}" name="Title" dataDxfId="427"/>
+    <tableColumn id="2" xr3:uid="{E141FC1E-E5DB-46DB-8E96-9C54D216ADC6}" name="Console" dataDxfId="426"/>
+    <tableColumn id="3" xr3:uid="{0E3FF128-F7CD-462B-A57E-B9D81DB3F4BF}" name="Genre" dataDxfId="425"/>
+    <tableColumn id="4" xr3:uid="{F83795A8-64EC-409C-966C-415888DD7EF7}" name="Publisher" dataDxfId="424"/>
+    <tableColumn id="5" xr3:uid="{0BBF2B42-A03D-4A01-A20C-0DE8C11D5AFD}" name="Developer" dataDxfId="423"/>
+    <tableColumn id="6" xr3:uid="{400766E2-71E0-4C1F-BCB6-A1EFE42104D5}" name="Critic Score" dataDxfId="422"/>
+    <tableColumn id="7" xr3:uid="{053C481B-6585-41AD-901C-D025503B0B85}" name="Total Sales" dataDxfId="421"/>
+    <tableColumn id="8" xr3:uid="{6EA3CCC3-0146-4216-81BA-5490D0891AC5}" name="North America Sales" dataDxfId="420"/>
+    <tableColumn id="9" xr3:uid="{04E99B44-1DE6-48EA-9A10-4C6943ABBE0B}" name="Japan Sales" dataDxfId="419"/>
+    <tableColumn id="10" xr3:uid="{0D42D977-E1CE-493D-89BB-43EAA9D461D4}" name="Europe &amp; Africa Sales" dataDxfId="418"/>
+    <tableColumn id="11" xr3:uid="{A4183C85-52F3-4D32-8523-A662774EBF37}" name="Other Sales" dataDxfId="417"/>
+    <tableColumn id="12" xr3:uid="{56B85B3F-4C2B-4F43-87F5-6D6F835CE5C5}" name="Release Date" dataDxfId="416"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -22519,7 +25043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -30951,255 +33475,255 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71782531-946C-4D15-9452-2B35AEC9F2E2}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:H19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.21875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="35.21875" style="13" customWidth="1"/>
     <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="25" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
+      <c r="A2" s="26"/>
     </row>
     <row r="15" spans="1:15" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="24" t="s">
         <v>367</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24" t="s">
         <v>337</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="J15" s="32" t="s">
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="J15" s="24" t="s">
         <v>340</v>
       </c>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32" t="s">
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24" t="s">
         <v>337</v>
       </c>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
     </row>
     <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.35">
-      <c r="C16" s="28" t="str">
+      <c r="C16" s="20" t="str">
         <f>'Dashboard Pivot Table'!A4</f>
         <v>2013</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="30">
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="22">
         <f>'Dashboard Pivot Table'!B4</f>
         <v>91220000</v>
       </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="J16" s="28" t="str">
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="J16" s="20" t="str">
         <f>'Dashboard Pivot Table'!A14</f>
         <v>PS4</v>
       </c>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="30">
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="22">
         <f>'Dashboard Pivot Table'!B14</f>
         <v>74920000</v>
       </c>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
     </row>
     <row r="17" spans="3:15" ht="15" x14ac:dyDescent="0.35">
-      <c r="C17" s="28" t="str">
+      <c r="C17" s="20" t="str">
         <f>'Dashboard Pivot Table'!A5</f>
         <v>2014</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="30">
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="22">
         <f>'Dashboard Pivot Table'!B5</f>
         <v>92830000</v>
       </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="J17" s="28" t="str">
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="J17" s="20" t="str">
         <f>'Dashboard Pivot Table'!A15</f>
         <v>PS3</v>
       </c>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="30">
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="22">
         <f>'Dashboard Pivot Table'!B15</f>
         <v>33180000</v>
       </c>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
     </row>
     <row r="18" spans="3:15" ht="15" x14ac:dyDescent="0.35">
-      <c r="C18" s="28" t="str">
+      <c r="C18" s="20" t="str">
         <f>'Dashboard Pivot Table'!A6</f>
         <v>2015</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="30">
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="22">
         <f>'Dashboard Pivot Table'!B6</f>
         <v>77490000</v>
       </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="J18" s="28" t="str">
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="J18" s="20" t="str">
         <f>'Dashboard Pivot Table'!A16</f>
         <v>XOne</v>
       </c>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="30">
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="22">
         <f>'Dashboard Pivot Table'!B16</f>
         <v>10670000</v>
       </c>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
     </row>
     <row r="19" spans="3:15" ht="15" x14ac:dyDescent="0.35">
-      <c r="C19" s="28" t="str">
+      <c r="C19" s="20" t="str">
         <f>'Dashboard Pivot Table'!A7</f>
         <v>2016</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="30">
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="22">
         <f>'Dashboard Pivot Table'!B7</f>
         <v>66840000</v>
       </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="J19" s="28" t="str">
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="J19" s="20" t="str">
         <f>'Dashboard Pivot Table'!A17</f>
         <v>X360</v>
       </c>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="30">
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="22">
         <f>'Dashboard Pivot Table'!B17</f>
         <v>7440000</v>
       </c>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
     </row>
     <row r="20" spans="3:15" ht="15" x14ac:dyDescent="0.35">
-      <c r="C20" s="28" t="str">
+      <c r="C20" s="20" t="str">
         <f>'Dashboard Pivot Table'!A8</f>
         <v>2017</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="30">
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="22">
         <f>'Dashboard Pivot Table'!B8</f>
         <v>55620000</v>
       </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="J20" s="28" t="str">
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="J20" s="20" t="str">
         <f>'Dashboard Pivot Table'!A18</f>
         <v>NS</v>
       </c>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="30">
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="22">
         <f>'Dashboard Pivot Table'!B18</f>
         <v>5500000</v>
       </c>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
     </row>
     <row r="21" spans="3:15" ht="15" x14ac:dyDescent="0.35">
-      <c r="C21" s="28" t="str">
+      <c r="C21" s="20" t="str">
         <f>'Dashboard Pivot Table'!A9</f>
         <v>2018</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="30">
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="22">
         <f>'Dashboard Pivot Table'!B9</f>
         <v>42980000</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="J21" s="28" t="str">
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="J21" s="20" t="str">
         <f>'Dashboard Pivot Table'!A19</f>
         <v>3DS</v>
       </c>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="30">
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="22">
         <f>'Dashboard Pivot Table'!B19</f>
         <v>4650000</v>
       </c>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
     </row>
     <row r="22" spans="3:15" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="C22" s="29" t="str">
+      <c r="C22" s="21" t="str">
         <f>'Dashboard Pivot Table'!A10</f>
         <v>Grand Total</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="31">
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="23">
         <f>'Dashboard Pivot Table'!B10</f>
         <v>426980000</v>
       </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="J22" s="28" t="str">
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="J22" s="20" t="str">
         <f>'Dashboard Pivot Table'!A20</f>
         <v>WiiU</v>
       </c>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="30">
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="22">
         <f>'Dashboard Pivot Table'!B20</f>
         <v>3700000</v>
       </c>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
     </row>
     <row r="23" spans="3:15" ht="15" x14ac:dyDescent="0.35">
-      <c r="J23" s="28" t="str">
+      <c r="J23" s="20" t="str">
         <f>'Dashboard Pivot Table'!A21</f>
         <v>PSV</v>
       </c>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="30">
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="22">
         <f>'Dashboard Pivot Table'!B21</f>
         <v>920000</v>
       </c>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
     </row>
     <row r="24" spans="3:15" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="J24" s="29" t="str">
+      <c r="J24" s="21" t="str">
         <f>'Dashboard Pivot Table'!A22</f>
         <v>Grand Total</v>
       </c>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="31">
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="23">
         <f>'Dashboard Pivot Table'!B22</f>
         <v>140980000</v>
       </c>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -31321,15 +33845,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4118D74F-B0BE-43B2-B703-D8F07503BC66}">
   <dimension ref="A3:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -31496,74 +34020,74 @@
     <col min="180" max="180" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
         <v>367</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="27" t="s">
         <v>350</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="27" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="31">
         <v>91220000</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="30">
         <f>AVERAGE(B4:B9)</f>
         <v>71163333.333333328</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="31">
         <v>92830000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="31">
         <v>77490000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="31">
         <v>66840000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="31">
         <v>55620000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="31">
         <v>42980000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="28">
         <v>426980000</v>
       </c>
     </row>
@@ -31573,154 +34097,154 @@
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="27" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="31">
         <v>74920000</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="31">
         <v>33180000</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="31">
         <v>10670000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="31">
         <v>7440000</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="31">
         <v>5500000</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="31">
         <v>4650000</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="31">
         <v>3700000</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="31">
         <v>920000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="28">
         <v>140980000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
         <v>367</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="27" t="s">
         <v>369</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="27" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="32">
         <v>42</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="33">
         <f>AVERAGE(B26:B31)</f>
         <v>36.666666666666664</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="32">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="32">
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="32">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="32">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="32">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="27">
         <v>220</v>
       </c>
     </row>
@@ -31735,20 +34259,20 @@
   <dimension ref="A3:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="27" t="s">
         <v>337</v>
       </c>
     </row>
@@ -31756,7 +34280,7 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="36">
         <v>148730000</v>
       </c>
     </row>
@@ -31764,7 +34288,7 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="36">
         <v>75140000</v>
       </c>
     </row>
@@ -31772,7 +34296,7 @@
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="36">
         <v>63010000</v>
       </c>
     </row>
@@ -31780,7 +34304,7 @@
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="36">
         <v>46590000</v>
       </c>
     </row>
@@ -31788,7 +34312,7 @@
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="36">
         <v>40650000</v>
       </c>
     </row>
@@ -31796,7 +34320,7 @@
       <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="36">
         <v>14770000</v>
       </c>
     </row>
@@ -31804,7 +34328,7 @@
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="36">
         <v>14160000</v>
       </c>
     </row>
@@ -31812,7 +34336,7 @@
       <c r="A11" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="36">
         <v>8570000</v>
       </c>
     </row>
@@ -31820,7 +34344,7 @@
       <c r="A12" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="36">
         <v>2810000</v>
       </c>
     </row>
@@ -31828,7 +34352,7 @@
       <c r="A13" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="36">
         <v>2300000</v>
       </c>
     </row>
@@ -31836,7 +34360,7 @@
       <c r="A14" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="36">
         <v>2250000</v>
       </c>
     </row>
@@ -31844,7 +34368,7 @@
       <c r="A15" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="36">
         <v>2040000</v>
       </c>
     </row>
@@ -31852,7 +34376,7 @@
       <c r="A16" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="36">
         <v>1980000</v>
       </c>
     </row>
@@ -31860,7 +34384,7 @@
       <c r="A17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="36">
         <v>1890000</v>
       </c>
     </row>
@@ -31868,7 +34392,7 @@
       <c r="A18" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="36">
         <v>1130000</v>
       </c>
     </row>
@@ -31876,7 +34400,7 @@
       <c r="A19" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="36">
         <v>660000</v>
       </c>
     </row>
@@ -31884,15 +34408,15 @@
       <c r="A20" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="36">
         <v>300000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="37">
         <v>426980000</v>
       </c>
     </row>
@@ -31918,217 +34442,222 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80474B37-35D2-4B7C-AEEB-AB3D2B72D986}">
   <dimension ref="A3:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
         <v>350</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="27" t="s">
         <v>357</v>
       </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="27" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="38" t="s">
         <v>351</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="39">
         <v>27990000</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="39">
         <v>12770000</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="39">
         <v>1710000</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22">
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39">
         <v>42470000</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="38" t="s">
         <v>352</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="39">
         <v>31150000</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="39">
         <v>2640000</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="39">
         <v>9740000</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="39">
         <v>200000</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="39">
         <v>820000</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22">
+      <c r="G6" s="39"/>
+      <c r="H6" s="39">
         <v>44550000</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="38" t="s">
         <v>353</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="39">
         <v>7710000</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="39">
         <v>2120000</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="39">
         <v>380000</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="39">
         <v>1450000</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22">
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <v>11660000</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="38" t="s">
         <v>354</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="39">
         <v>150000</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="39">
         <v>10180000</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="39">
         <v>1470000</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22">
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39">
         <v>11800000</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="38" t="s">
         <v>355</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="39">
         <v>900000</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="39">
         <v>560000</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="39">
         <v>580000</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="39">
         <v>570000</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22">
+      <c r="F9" s="39"/>
+      <c r="G9" s="39">
         <v>300000</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="39">
         <v>2910000</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="38" t="s">
         <v>356</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="39">
         <v>7240000</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="39">
         <v>18320000</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="39">
         <v>280000</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="39">
         <v>590000</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="39">
         <v>1160000</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22">
+      <c r="G10" s="39"/>
+      <c r="H10" s="39">
         <v>27590000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="34">
         <v>75140000</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="34">
         <v>46590000</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="34">
         <v>14160000</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="34">
         <v>2810000</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="34">
         <v>1980000</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="34">
         <v>300000</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="34">
         <v>140980000</v>
       </c>
     </row>
@@ -32144,24 +34673,24 @@
   <dimension ref="A3:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="27" t="s">
         <v>362</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="27" t="s">
         <v>337</v>
       </c>
     </row>
@@ -32169,10 +34698,10 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="10">
         <v>9.3666666666666671</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="35">
         <v>48430000</v>
       </c>
     </row>
@@ -32180,10 +34709,10 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>9.8000000000000007</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="35">
         <v>13940000</v>
       </c>
     </row>
@@ -32191,10 +34720,10 @@
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>8.1750000000000007</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="35">
         <v>13200000</v>
       </c>
     </row>
@@ -32202,10 +34731,10 @@
       <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <v>9.0500000000000007</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="35">
         <v>6780000</v>
       </c>
     </row>
@@ -32213,10 +34742,10 @@
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <v>9.4</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="35">
         <v>6330000</v>
       </c>
     </row>
@@ -32224,10 +34753,10 @@
       <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="10">
         <v>8.6999999999999993</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="35">
         <v>4410000</v>
       </c>
     </row>
@@ -32235,10 +34764,10 @@
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="10">
         <v>8.1</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="35">
         <v>4110000</v>
       </c>
     </row>
@@ -32246,10 +34775,10 @@
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <v>7.9</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="35">
         <v>3950000</v>
       </c>
     </row>
@@ -32257,10 +34786,10 @@
       <c r="A12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="10">
         <v>6.9</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="35">
         <v>2870000</v>
       </c>
     </row>
@@ -32268,10 +34797,10 @@
       <c r="A13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="10">
         <v>7.8000000000000007</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="35">
         <v>2550000</v>
       </c>
     </row>
@@ -32279,10 +34808,10 @@
       <c r="A14" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="10">
         <v>7.6</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="35">
         <v>2420000</v>
       </c>
     </row>
@@ -32290,10 +34819,10 @@
       <c r="A15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="10">
         <v>6.8</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="35">
         <v>2260000</v>
       </c>
     </row>
@@ -32301,10 +34830,10 @@
       <c r="A16" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="10">
         <v>8.3500000000000014</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="35">
         <v>1980000</v>
       </c>
     </row>
@@ -32312,10 +34841,10 @@
       <c r="A17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="10">
         <v>7.5</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="35">
         <v>1980000</v>
       </c>
     </row>
@@ -32323,10 +34852,10 @@
       <c r="A18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="10">
         <v>8.1333333333333329</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="35">
         <v>1930000</v>
       </c>
     </row>
@@ -32334,10 +34863,10 @@
       <c r="A19" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="10">
         <v>8.5</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="35">
         <v>1860000</v>
       </c>
     </row>
@@ -32345,10 +34874,10 @@
       <c r="A20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="10">
         <v>5.5</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="35">
         <v>1470000</v>
       </c>
     </row>
@@ -32356,10 +34885,10 @@
       <c r="A21" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="10">
         <v>6.1</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="35">
         <v>1430000</v>
       </c>
     </row>
@@ -32367,10 +34896,10 @@
       <c r="A22" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="10">
         <v>7.5250000000000004</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="35">
         <v>1420000</v>
       </c>
     </row>
@@ -32378,10 +34907,10 @@
       <c r="A23" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="10">
         <v>6.75</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="35">
         <v>1360000</v>
       </c>
     </row>
@@ -32389,21 +34918,21 @@
       <c r="A24" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="10">
         <v>8.6000000000000014</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="35">
         <v>1360000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="27">
         <v>7.974418604651162</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="28">
         <v>126040000</v>
       </c>
     </row>
@@ -32422,10 +34951,10 @@
       <c r="A35" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="11">
         <v>7.2</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="14">
         <v>860000</v>
       </c>
     </row>
@@ -32433,10 +34962,10 @@
       <c r="A36" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="11">
         <v>8.1</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="14">
         <v>820000</v>
       </c>
     </row>
@@ -32444,10 +34973,10 @@
       <c r="A37" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="11">
         <v>8.15</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="14">
         <v>720000</v>
       </c>
     </row>
@@ -32455,10 +34984,10 @@
       <c r="A38" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="11">
         <v>6</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="14">
         <v>710000</v>
       </c>
     </row>
@@ -32466,10 +34995,10 @@
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="11">
         <v>9</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="14">
         <v>670000</v>
       </c>
     </row>
@@ -32477,10 +35006,10 @@
       <c r="A40" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40" s="11">
         <v>7.8</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="14">
         <v>500000</v>
       </c>
     </row>
@@ -32488,10 +35017,10 @@
       <c r="A41" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="11">
         <v>7.3</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="14">
         <v>470000</v>
       </c>
     </row>
@@ -32499,10 +35028,10 @@
       <c r="A42" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="11">
         <v>7.1</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="14">
         <v>470000</v>
       </c>
     </row>
@@ -32510,10 +35039,10 @@
       <c r="A43" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="11">
         <v>6.5</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="14">
         <v>420000</v>
       </c>
     </row>
@@ -32521,10 +35050,10 @@
       <c r="A44" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B44" s="11">
         <v>7.5</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="14">
         <v>380000</v>
       </c>
     </row>
@@ -32532,10 +35061,10 @@
       <c r="A45" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B45" s="14">
+      <c r="B45" s="11">
         <v>7</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="14">
         <v>360000</v>
       </c>
     </row>
@@ -32543,10 +35072,10 @@
       <c r="A46" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B46" s="14">
+      <c r="B46" s="11">
         <v>6</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="14">
         <v>330000</v>
       </c>
     </row>
@@ -32554,10 +35083,10 @@
       <c r="A47" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47" s="11">
         <v>5.3</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="14">
         <v>300000</v>
       </c>
     </row>
@@ -32565,10 +35094,10 @@
       <c r="A48" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="11">
         <v>7.5</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="14">
         <v>220000</v>
       </c>
     </row>
@@ -32576,10 +35105,10 @@
       <c r="A49" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B49" s="14">
+      <c r="B49" s="11">
         <v>8</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="14">
         <v>210000</v>
       </c>
     </row>
@@ -32587,10 +35116,10 @@
       <c r="A50" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B50" s="11">
         <v>7</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="14">
         <v>200000</v>
       </c>
     </row>
@@ -32598,10 +35127,10 @@
       <c r="A51" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B51" s="11">
         <v>8</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="14">
         <v>160000</v>
       </c>
     </row>
@@ -32609,10 +35138,10 @@
       <c r="A52" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B52" s="14">
+      <c r="B52" s="11">
         <v>6.3</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="14">
         <v>150000</v>
       </c>
     </row>
@@ -32620,10 +35149,10 @@
       <c r="A53" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B53" s="14">
+      <c r="B53" s="11">
         <v>7</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="14">
         <v>140000</v>
       </c>
     </row>
@@ -32631,10 +35160,10 @@
       <c r="A54" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B54" s="14">
+      <c r="B54" s="11">
         <v>4.5</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="14">
         <v>20000</v>
       </c>
     </row>
@@ -32642,10 +35171,10 @@
       <c r="A55" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="B55" s="15">
+      <c r="B55" s="12">
         <v>7.0863636363636351</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C55" s="15">
         <v>8110000</v>
       </c>
     </row>
@@ -32694,30 +35223,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="24">
+      <c r="A4" s="16">
         <v>62450000</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="17">
         <v>50440000</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="18">
         <v>19310000</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="19">
         <v>8770000</v>
       </c>
     </row>
